--- a/results/configuration_2/experiment_results.xlsx
+++ b/results/configuration_2/experiment_results.xlsx
@@ -613,19 +613,19 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="R4" t="n">
-        <v>14</v>
+        <v>24.5</v>
       </c>
       <c r="S4" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="T4" t="n">
-        <v>1680</v>
+        <v>2940</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -687,19 +687,19 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>64</v>
+        <v>49.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="S5" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="T5" t="n">
-        <v>1680</v>
+        <v>2880</v>
       </c>
       <c r="V5" t="n">
         <v>2</v>
@@ -761,19 +761,19 @@
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>64</v>
+        <v>47.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="S6" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="T6" t="n">
-        <v>1680</v>
+        <v>1140</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>64</v>
+        <v>47.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="S7" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="T7" t="n">
-        <v>1680</v>
+        <v>1140</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
@@ -909,19 +909,19 @@
         <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>40.9836</v>
+        <v>47.1311</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S8" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="T8" t="n">
-        <v>1560</v>
+        <v>840</v>
       </c>
       <c r="V8" t="n">
         <v>5</v>
@@ -983,19 +983,19 @@
         <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>40.9836</v>
+        <v>45.9016</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="R9" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="T9" t="n">
-        <v>1560</v>
+        <v>480</v>
       </c>
       <c r="V9" t="n">
         <v>6</v>
@@ -1057,19 +1057,19 @@
         <v>7</v>
       </c>
       <c r="P10" t="n">
-        <v>40.9836</v>
+        <v>33.1967</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>15.75</v>
       </c>
       <c r="S10" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T10" t="n">
-        <v>1560</v>
+        <v>1890</v>
       </c>
       <c r="V10" t="n">
         <v>7</v>
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="P11" t="n">
-        <v>40.9836</v>
+        <v>44.0574</v>
       </c>
       <c r="Q11" t="n">
         <v>2.6</v>
@@ -1140,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="S11" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T11" t="n">
         <v>1560</v>
@@ -1205,19 +1205,19 @@
         <v>9</v>
       </c>
       <c r="P12" t="n">
-        <v>40.9836</v>
+        <v>47.541</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="T12" t="n">
-        <v>1560</v>
+        <v>960</v>
       </c>
       <c r="V12" t="n">
         <v>9</v>
@@ -1279,19 +1279,19 @@
         <v>10</v>
       </c>
       <c r="P13" t="n">
-        <v>40.9836</v>
+        <v>46.3115</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="T13" t="n">
-        <v>1560</v>
+        <v>1140</v>
       </c>
       <c r="V13" t="n">
         <v>10</v>
@@ -1353,19 +1353,19 @@
         <v>11</v>
       </c>
       <c r="P14" t="n">
-        <v>40.9836</v>
+        <v>47.541</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="T14" t="n">
-        <v>1560</v>
+        <v>960</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
@@ -1427,19 +1427,19 @@
         <v>12</v>
       </c>
       <c r="P15" t="n">
-        <v>22.7273</v>
+        <v>37.3864</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>5.45</v>
       </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>27.25</v>
       </c>
       <c r="S15" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="T15" t="n">
-        <v>1560</v>
+        <v>3270</v>
       </c>
       <c r="V15" t="n">
         <v>12</v>

--- a/results/configuration_2/experiment_results.xlsx
+++ b/results/configuration_2/experiment_results.xlsx
@@ -577,73 +577,73 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>54.6667</v>
+        <v>92.16670000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D4" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E4" t="n">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F4" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>74.9833</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8</v>
+        <v>18.7458</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>37.4917</v>
       </c>
       <c r="L4" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M4" t="n">
-        <v>480</v>
+        <v>4499</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.9</v>
+        <v>23.5</v>
       </c>
       <c r="R4" t="n">
-        <v>24.5</v>
+        <v>47</v>
       </c>
       <c r="S4" t="n">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="T4" t="n">
-        <v>2940</v>
+        <v>5640</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AA4" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5">
@@ -651,73 +651,73 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>54.6667</v>
+        <v>92.16670000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D5" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E5" t="n">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>74.9833</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8</v>
+        <v>18.7458</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>37.4917</v>
       </c>
       <c r="L5" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M5" t="n">
-        <v>480</v>
+        <v>4499</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>49.5</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.8</v>
+        <v>23</v>
       </c>
       <c r="R5" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="S5" t="n">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="T5" t="n">
-        <v>2880</v>
+        <v>5520</v>
       </c>
       <c r="V5" t="n">
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="6">
@@ -725,73 +725,73 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>54.6667</v>
+        <v>92.16670000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D6" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>74.9833</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8</v>
+        <v>18.7458</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>37.4917</v>
       </c>
       <c r="L6" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>480</v>
+        <v>4499</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>47.5</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>23</v>
       </c>
       <c r="R6" t="n">
-        <v>9.5</v>
+        <v>46</v>
       </c>
       <c r="S6" t="n">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="T6" t="n">
-        <v>1140</v>
+        <v>5520</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="7">
@@ -799,73 +799,73 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>54.6667</v>
+        <v>92.16670000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D7" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F7" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>74.9833</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8</v>
+        <v>18.7458</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>37.4917</v>
       </c>
       <c r="L7" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>480</v>
+        <v>4499</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>47.5</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>23</v>
       </c>
       <c r="R7" t="n">
-        <v>9.5</v>
+        <v>46</v>
       </c>
       <c r="S7" t="n">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="T7" t="n">
-        <v>1140</v>
+        <v>5520</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AA7" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="8">
@@ -873,73 +873,73 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>44.8087</v>
+        <v>75.54640000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D8" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E8" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F8" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.8033</v>
+        <v>75.0273</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>22.8833</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>45.7667</v>
       </c>
       <c r="L8" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>1440</v>
+        <v>5492</v>
       </c>
       <c r="O8" t="n">
         <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>47.1311</v>
+        <v>75.4098</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>23</v>
       </c>
       <c r="R8" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="S8" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="T8" t="n">
-        <v>840</v>
+        <v>5520</v>
       </c>
       <c r="V8" t="n">
         <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>40.1639</v>
+        <v>77.0492</v>
       </c>
       <c r="X8" t="n">
-        <v>2.2</v>
+        <v>23.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="AA8" t="n">
-        <v>1320</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="9">
@@ -947,73 +947,73 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>44.8087</v>
+        <v>75.54640000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D9" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H9" t="n">
         <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>41.8033</v>
+        <v>75.0137</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>22.8792</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>45.7583</v>
       </c>
       <c r="L9" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M9" t="n">
-        <v>1440</v>
+        <v>5491</v>
       </c>
       <c r="O9" t="n">
         <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>45.9016</v>
+        <v>75.4098</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>23</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="S9" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="T9" t="n">
-        <v>480</v>
+        <v>5520</v>
       </c>
       <c r="V9" t="n">
         <v>6</v>
       </c>
       <c r="W9" t="n">
-        <v>47.541</v>
+        <v>75.4098</v>
       </c>
       <c r="X9" t="n">
-        <v>2.2</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="AA9" t="n">
-        <v>1320</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="10">
@@ -1021,73 +1021,73 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>44.8087</v>
+        <v>75.54640000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D10" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E10" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F10" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>41.8033</v>
+        <v>75.0137</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>22.8792</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>45.7583</v>
       </c>
       <c r="L10" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M10" t="n">
-        <v>1440</v>
+        <v>5491</v>
       </c>
       <c r="O10" t="n">
         <v>7</v>
       </c>
       <c r="P10" t="n">
-        <v>33.1967</v>
+        <v>75.4098</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.15</v>
+        <v>23</v>
       </c>
       <c r="R10" t="n">
-        <v>15.75</v>
+        <v>46</v>
       </c>
       <c r="S10" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="T10" t="n">
-        <v>1890</v>
+        <v>5520</v>
       </c>
       <c r="V10" t="n">
         <v>7</v>
       </c>
       <c r="W10" t="n">
-        <v>47.541</v>
+        <v>75.4098</v>
       </c>
       <c r="X10" t="n">
-        <v>2.2</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Z10" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="AA10" t="n">
-        <v>1320</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="11">
@@ -1095,73 +1095,73 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>44.8087</v>
+        <v>75.54640000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D11" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F11" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H11" t="n">
         <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>49.1803</v>
+        <v>75.0137</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>22.8792</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>45.7583</v>
       </c>
       <c r="L11" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="M11" t="n">
-        <v>1440</v>
+        <v>5491</v>
       </c>
       <c r="O11" t="n">
         <v>8</v>
       </c>
       <c r="P11" t="n">
-        <v>44.0574</v>
+        <v>75.4098</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>23</v>
       </c>
       <c r="R11" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="S11" t="n">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="T11" t="n">
-        <v>1560</v>
+        <v>5520</v>
       </c>
       <c r="V11" t="n">
         <v>8</v>
       </c>
       <c r="W11" t="n">
-        <v>47.541</v>
+        <v>75.4098</v>
       </c>
       <c r="X11" t="n">
-        <v>2.2</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Z11" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
-        <v>1320</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="12">
@@ -1169,73 +1169,73 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>44.8087</v>
+        <v>75.54640000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D12" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F12" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H12" t="n">
         <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>49.1803</v>
+        <v>75.0137</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>22.8792</v>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>45.7583</v>
       </c>
       <c r="L12" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="M12" t="n">
-        <v>1440</v>
+        <v>5491</v>
       </c>
       <c r="O12" t="n">
         <v>9</v>
       </c>
       <c r="P12" t="n">
-        <v>47.541</v>
+        <v>75.4098</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>23</v>
       </c>
       <c r="R12" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="S12" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="T12" t="n">
-        <v>960</v>
+        <v>5520</v>
       </c>
       <c r="V12" t="n">
         <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>47.541</v>
+        <v>75.4098</v>
       </c>
       <c r="X12" t="n">
-        <v>2.2</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Z12" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="AA12" t="n">
-        <v>1320</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="13">
@@ -1243,73 +1243,73 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>44.8087</v>
+        <v>75.54640000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D13" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F13" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>49.1803</v>
+        <v>75.0137</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>22.8792</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>45.7583</v>
       </c>
       <c r="L13" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="M13" t="n">
-        <v>1440</v>
+        <v>5491</v>
       </c>
       <c r="O13" t="n">
         <v>10</v>
       </c>
       <c r="P13" t="n">
-        <v>46.3115</v>
+        <v>75.4098</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>23</v>
       </c>
       <c r="R13" t="n">
-        <v>9.5</v>
+        <v>46</v>
       </c>
       <c r="S13" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="T13" t="n">
-        <v>1140</v>
+        <v>5520</v>
       </c>
       <c r="V13" t="n">
         <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>36.0656</v>
+        <v>75.4098</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="Z13" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="AA13" t="n">
-        <v>1200</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="14">
@@ -1317,73 +1317,73 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>44.8087</v>
+        <v>75.54640000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D14" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F14" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H14" t="n">
         <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>49.1803</v>
+        <v>75.0137</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>22.8792</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>45.7583</v>
       </c>
       <c r="L14" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="M14" t="n">
-        <v>1440</v>
+        <v>5491</v>
       </c>
       <c r="O14" t="n">
         <v>11</v>
       </c>
       <c r="P14" t="n">
-        <v>47.541</v>
+        <v>75.4098</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>23</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="S14" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="T14" t="n">
-        <v>960</v>
+        <v>5520</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
       </c>
       <c r="W14" t="n">
-        <v>36.0656</v>
+        <v>75.4098</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="Z14" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>1200</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="15">
@@ -1391,73 +1391,73 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8485</v>
+        <v>41.8939</v>
       </c>
       <c r="C15" t="n">
-        <v>2.6667</v>
+        <v>23.0417</v>
       </c>
       <c r="D15" t="n">
-        <v>13.3333</v>
+        <v>46.0833</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>1600</v>
+        <v>5530</v>
       </c>
       <c r="H15" t="n">
         <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>66.8182</v>
+        <v>75.197</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>41.3583</v>
       </c>
       <c r="K15" t="n">
-        <v>60</v>
+        <v>82.7167</v>
       </c>
       <c r="L15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M15" t="n">
-        <v>7200</v>
+        <v>9926</v>
       </c>
       <c r="O15" t="n">
         <v>12</v>
       </c>
       <c r="P15" t="n">
-        <v>37.3864</v>
+        <v>41.8182</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.45</v>
+        <v>23</v>
       </c>
       <c r="R15" t="n">
-        <v>27.25</v>
+        <v>46</v>
       </c>
       <c r="S15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T15" t="n">
-        <v>3270</v>
+        <v>5520</v>
       </c>
       <c r="V15" t="n">
         <v>12</v>
       </c>
       <c r="W15" t="n">
-        <v>79.5455</v>
+        <v>63.6364</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="Y15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="n">
-        <v>7800</v>
+        <v>8400</v>
       </c>
     </row>
   </sheetData>
